--- a/examples/rdbms/artifact/data/rdbms.data.xlsx
+++ b/examples/rdbms/artifact/data/rdbms.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/rdbms/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B9B0F-A9CC-7047-A01D-8933559F15D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85C571-1F55-CC4C-9177-64DD538C8AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6280" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
